--- a/medicine/Mort/Cimetière_de_Saint-Cloud/Cimetière_de_Saint-Cloud.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Cloud/Cimetière_de_Saint-Cloud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Cloud</t>
+          <t>Cimetière_de_Saint-Cloud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Saint-Cloud est le cimetière communal de la ville de Saint-Cloud dans les Hauts-de-Seine. Nombre de personnalités y sont enterrées, comme Gérard Blain ou Jean-René Huguenin[1]. Il est organisé en vingt divisions. Il dispose d'une entrée avenue du Maréchal-Foch et un autre rue Ferdinand-Chartier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Saint-Cloud est le cimetière communal de la ville de Saint-Cloud dans les Hauts-de-Seine. Nombre de personnalités y sont enterrées, comme Gérard Blain ou Jean-René Huguenin. Il est organisé en vingt divisions. Il dispose d'une entrée avenue du Maréchal-Foch et un autre rue Ferdinand-Chartier.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Cloud</t>
+          <t>Cimetière_de_Saint-Cloud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière est formé d'allées rectilignes à angle droit plantées d'arbres, autour d'un rond-point central avec son calvaire de fer forgé. Il présente un patrimoine intéressant, par l'ornementation de certaines tombes (médaillons, bustes) et l'histoire locale ou artistique française. On remarque le monument ouvragé (sculpteur Augustin Lesieux) de l'entrepreneur de spectacle Robert Spire (1838-1915) ou encore la tombe du docteur Charles Desfossez (1927-1900) avec un bas-relief de bronze et un buste par Jean Tournoux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière est formé d'allées rectilignes à angle droit plantées d'arbres, autour d'un rond-point central avec son calvaire de fer forgé. Il présente un patrimoine intéressant, par l'ornementation de certaines tombes (médaillons, bustes) et l'histoire locale ou artistique française. On remarque le monument ouvragé (sculpteur Augustin Lesieux) de l'entrepreneur de spectacle Robert Spire (1838-1915) ou encore la tombe du docteur Charles Desfossez (1927-1900) avec un bas-relief de bronze et un buste par Jean Tournoux.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Cloud</t>
+          <t>Cimetière_de_Saint-Cloud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>René Alexandre (1885-1946), acteur, sociétaire de la Comédie-Française ;
 Maurice Allais (1911-2010), prix Nobel d'économie ;
@@ -555,7 +571,7 @@
 François Brigneau (né Emmanuel Allot, 1919-2012), éditeur, journaliste et homme politique ;
 Jean-Michel Charlier (1924-1989), scénariste de bande dessinée ;
 Édouard Dantan (1848-1897), peintre ;
-Alphonse Georges (1875-1951), général [2] ;
+Alphonse Georges (1875-1951), général  ;
 Gilbert Grandval (né Hirsch-Ollendorff, 1904-1981), résistant, ministre et compagnon de la Libération ;
 Fernand Gravey (né Mertens, 1905-1970), acteur ;
 Jean Guélis (1923-1991), danseur et chorégraphe ;
